--- a/Response Time Stats.xlsx
+++ b/Response Time Stats.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jarajaku/Documents/gitworkspace/CertVerify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9466CD-CA2B-1A4E-A6A6-D6E12B67BBE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB43ECB-3528-3049-9096-24523EAD9CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="480" windowWidth="33600" windowHeight="18740" xr2:uid="{07F98373-310D-E643-830B-571D194E7C28}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="18740" xr2:uid="{07F98373-310D-E643-830B-571D194E7C28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$M$3:$M$7</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$N$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$N$3:$N$7</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$O$2</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$O$3:$O$7</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$P$2</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$P$3:$P$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>wiki</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>OCSP Cache</t>
   </si>
 </sst>
 </file>
@@ -238,10 +232,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="sq">
+            <a:ln w="28575" cap="sq" cmpd="tri">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -312,7 +307,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CRL Cache</c:v>
+                  <c:v>OCSP Cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +317,6 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -360,19 +354,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>149</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.4</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.6</c:v>
+                  <c:v>169.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.6</c:v>
+                  <c:v>59.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +387,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CRL</c:v>
+                  <c:v>CRL Cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -401,7 +395,88 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F77A-704F-BD1D-951DA1884C12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CRL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
               <a:round/>
@@ -436,7 +511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$7</c:f>
+              <c:f>Sheet1!$Q$3:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -461,12 +536,11 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F77A-704F-BD1D-951DA1884C12}"/>
+              <c16:uniqueId val="{00000000-EB5B-3A41-871B-35514459174B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1297,16 +1371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1631,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F639D795-6B77-B640-AB75-093FCCCAC5F5}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1716,7 @@
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1703,13 +1777,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1743,13 +1820,16 @@
         <v>336</v>
       </c>
       <c r="O3">
+        <v>88</v>
+      </c>
+      <c r="P3">
         <v>149</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1783,13 +1863,16 @@
         <v>399.2</v>
       </c>
       <c r="O4">
+        <v>57.2</v>
+      </c>
+      <c r="P4">
         <v>61.4</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>429.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1823,38 +1906,16 @@
         <v>512</v>
       </c>
       <c r="O5">
+        <v>160</v>
+      </c>
+      <c r="P5">
         <v>154</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>661.2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="C6">
-        <v>152</v>
-      </c>
-      <c r="D6">
-        <v>149</v>
-      </c>
-      <c r="E6">
-        <v>147</v>
-      </c>
-      <c r="F6">
-        <v>149</v>
-      </c>
-      <c r="G6">
-        <v>148</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
         <v>15</v>
       </c>
@@ -1862,36 +1923,41 @@
         <v>435.2</v>
       </c>
       <c r="O6">
+        <v>169.2</v>
+      </c>
+      <c r="P6">
         <v>202.6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>583.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>534</v>
+        <f>AVERAGE(C7:G7)</f>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>562</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>576</v>
+        <v>86</v>
       </c>
       <c r="E7">
-        <v>564</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>487</v>
+        <v>86</v>
       </c>
       <c r="G7">
-        <v>481</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="M7" t="s">
         <v>16</v>
       </c>
@@ -1899,216 +1965,372 @@
         <v>137.19999999999999</v>
       </c>
       <c r="O7">
+        <v>59.4</v>
+      </c>
+      <c r="P7">
         <v>35.6</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>214.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>61.4</v>
+        <f t="shared" ref="B8:B11" si="1">AVERAGE(C8:G8)</f>
+        <v>57.2</v>
       </c>
       <c r="C8">
         <v>67</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>429.6</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="C9">
-        <v>422</v>
+        <v>158</v>
       </c>
       <c r="D9">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="E9">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="F9">
-        <v>374</v>
+        <v>157</v>
       </c>
       <c r="G9">
-        <v>450</v>
+        <v>157</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>154</v>
+        <f t="shared" si="1"/>
+        <v>169.2</v>
       </c>
       <c r="C10">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D10">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E10">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F10">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G10">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>661.2</v>
+        <f t="shared" si="1"/>
+        <v>59.4</v>
       </c>
       <c r="C11">
-        <v>620</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>630</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>659</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>677</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>720</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(C18:G18)</f>
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>152</v>
+      </c>
+      <c r="D18">
+        <v>149</v>
+      </c>
+      <c r="E18">
+        <v>147</v>
+      </c>
+      <c r="F18">
+        <v>149</v>
+      </c>
+      <c r="G18">
+        <v>148</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(C19:G19)</f>
+        <v>534</v>
+      </c>
+      <c r="C19">
+        <v>562</v>
+      </c>
+      <c r="D19">
+        <v>576</v>
+      </c>
+      <c r="E19">
+        <v>564</v>
+      </c>
+      <c r="F19">
+        <v>487</v>
+      </c>
+      <c r="G19">
+        <v>481</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(C20:G20)</f>
+        <v>61.4</v>
+      </c>
+      <c r="C20">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>62</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(C21:G21)</f>
+        <v>429.6</v>
+      </c>
+      <c r="C21">
+        <v>422</v>
+      </c>
+      <c r="D21">
+        <v>415</v>
+      </c>
+      <c r="E21">
+        <v>487</v>
+      </c>
+      <c r="F21">
+        <v>374</v>
+      </c>
+      <c r="G21">
+        <v>450</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(C22:G22)</f>
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>151</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="F22">
+        <v>154</v>
+      </c>
+      <c r="G22">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(C23:G23)</f>
+        <v>661.2</v>
+      </c>
+      <c r="C23">
+        <v>620</v>
+      </c>
+      <c r="D23">
+        <v>630</v>
+      </c>
+      <c r="E23">
+        <v>659</v>
+      </c>
+      <c r="F23">
+        <v>677</v>
+      </c>
+      <c r="G23">
+        <v>720</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="B24">
+        <f>AVERAGE(C24:G24)</f>
         <v>202.6</v>
       </c>
-      <c r="C12">
+      <c r="C24">
         <v>241</v>
       </c>
-      <c r="D12">
+      <c r="D24">
         <v>158</v>
       </c>
-      <c r="E12">
+      <c r="E24">
         <v>166</v>
       </c>
-      <c r="F12">
+      <c r="F24">
         <v>236</v>
       </c>
-      <c r="G12">
+      <c r="G24">
         <v>212</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H24" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="B25">
+        <f>AVERAGE(C25:G25)</f>
         <v>583.4</v>
       </c>
-      <c r="C13">
+      <c r="C25">
         <v>602</v>
       </c>
-      <c r="D13">
+      <c r="D25">
         <v>597</v>
       </c>
-      <c r="E13">
+      <c r="E25">
         <v>580</v>
       </c>
-      <c r="F13">
+      <c r="F25">
         <v>574</v>
       </c>
-      <c r="G13">
+      <c r="G25">
         <v>564</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H25" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="B26">
+        <f>AVERAGE(C26:G26)</f>
         <v>35.6</v>
       </c>
-      <c r="C14">
+      <c r="C26">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="E26">
         <v>36</v>
       </c>
-      <c r="F14">
+      <c r="F26">
         <v>35</v>
       </c>
-      <c r="G14">
+      <c r="G26">
         <v>37</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H26" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="B27">
+        <f>AVERAGE(C27:G27)</f>
         <v>214.6</v>
       </c>
-      <c r="C15">
+      <c r="C27">
         <v>216</v>
       </c>
-      <c r="D15">
+      <c r="D27">
         <v>221</v>
       </c>
-      <c r="E15">
+      <c r="E27">
         <v>212</v>
       </c>
-      <c r="F15">
+      <c r="F27">
         <v>213</v>
       </c>
-      <c r="G15">
+      <c r="G27">
         <v>211</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:H5"/>
-    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="H7:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
